--- a/SBM/仕様書(奥田).xlsx
+++ b/SBM/仕様書(奥田).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\奥田\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\games\SBM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A28B84-627F-4391-A98D-E63C8161D3A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5191619-0D27-4B6D-8B24-CA02D73FB700}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6972" tabRatio="839" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6972" tabRatio="839" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="フローチャート" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -754,6 +754,35 @@
   </si>
   <si>
     <t>floorblock.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残機0で死んだらゲームオーバー</t>
+    <rPh sb="0" eb="2">
+      <t>ザンキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>world1-3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>world1-4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エンディングへ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルに戻る</t>
+    <rPh sb="5" eb="6">
+      <t>モド</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -882,7 +911,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -901,7 +930,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -913,14 +945,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -997,16 +1035,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:rowOff>100330</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>434340</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:rowOff>100330</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1021,7 +1059,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6492240" y="1487170"/>
+          <a:off x="3383280" y="1403350"/>
           <a:ext cx="647700" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1048,23 +1086,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>466094</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>8896</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>46990</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>466095</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>8897</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
+        <xdr:cNvPr id="10" name="直線矢印コネクタ 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1072,8 +1110,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="8512814" y="549910"/>
-          <a:ext cx="1" cy="567690"/>
+          <a:off x="2691136" y="1586230"/>
+          <a:ext cx="1" cy="608330"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1102,22 +1140,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>659130</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>646430</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="直線コネクタ 8">
+        <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC307EF0-9A97-48F9-8F1D-983DD88BFAAA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1125,59 +1163,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3341370" y="1410970"/>
-          <a:ext cx="657860" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>8895</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>46990</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>8896</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="直線矢印コネクタ 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2691135" y="1586230"/>
-          <a:ext cx="1" cy="699770"/>
+          <a:off x="2682240" y="2491740"/>
+          <a:ext cx="0" cy="640080"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1205,32 +1192,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>662940</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>662940</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC307EF0-9A97-48F9-8F1D-983DD88BFAAA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3419A1CF-AEA2-4A6E-8D7A-06A5E9AA1C9E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1333500" y="2247900"/>
-          <a:ext cx="0" cy="480060"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3360420" y="723900"/>
+          <a:ext cx="685800" cy="7620"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1258,23 +1245,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>220980</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
+        <xdr:cNvPr id="17" name="直線コネクタ 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3419A1CF-AEA2-4A6E-8D7A-06A5E9AA1C9E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{086633E5-49D2-4FEB-B6ED-01C3BC7BCB3F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1282,8 +1269,163 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5958840" y="1059180"/>
-          <a:ext cx="0" cy="487680"/>
+          <a:off x="4046220" y="739140"/>
+          <a:ext cx="0" cy="1653540"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>130810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>130810</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直線コネクタ 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEDD35A4-F1A6-4259-906D-2176C922ABB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3390900" y="2378710"/>
+          <a:ext cx="647700" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A4F24FB-B5AD-485E-8233-61D8526A7661}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2689860" y="3421380"/>
+          <a:ext cx="0" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70E5A1B4-4F04-4786-8FFC-556CBB821C7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2689860" y="4396740"/>
+          <a:ext cx="0" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1317,22 +1459,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>213360</xdr:rowOff>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
+      <xdr:colOff>350520</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
+        <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F17F7441-CE77-4AC0-B7DF-68B9E3914691}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C67AF01-3D6F-4C32-9BC9-E375B69D6CDF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1354,8 +1496,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1196340" y="807720"/>
-          <a:ext cx="2438400" cy="2133600"/>
+          <a:off x="967740" y="853440"/>
+          <a:ext cx="2804160" cy="2103120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2150,10 +2292,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2165,24 +2307,31 @@
     </row>
     <row r="2" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="3" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="5" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G4" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G5" s="2"/>
+    </row>
     <row r="6" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="8"/>
+      <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="8" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="12"/>
       <c r="I8" t="s">
         <v>55</v>
       </c>
@@ -2195,21 +2344,69 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="8"/>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="12" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C12" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="12"/>
+    </row>
+    <row r="13" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="14" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D14" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="14"/>
+    </row>
+    <row r="15" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="16" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C16" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="12"/>
+    </row>
+    <row r="17" spans="3:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="18" spans="3:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D18" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="14"/>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C20" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="13"/>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="D22" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="10">
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D6:E6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C12:D12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="D3:E3" location="タイトル!A1" display="タイトル" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="D6:E6" location="ゲーム画面!A1" display="ゲーム画面" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D22:E22" location="タイトル!A1" display="タイトルに戻る" xr:uid="{8E76561B-7649-4614-8DEB-60C954BD3140}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2264,89 +2461,89 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="13"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B13" s="1"/>
@@ -2486,7 +2683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
@@ -2503,11 +2700,11 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
@@ -2515,7 +2712,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="22.2" x14ac:dyDescent="0.45">
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="7" t="s">
         <v>41</v>
       </c>
       <c r="R15" t="s">
@@ -2523,7 +2720,7 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="22.2" x14ac:dyDescent="0.45">
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="7" t="s">
         <v>42</v>
       </c>
       <c r="R16" t="s">
@@ -2531,7 +2728,7 @@
       </c>
     </row>
     <row r="17" spans="2:3" ht="22.2" x14ac:dyDescent="0.45">
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="7" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2539,27 +2736,27 @@
       <c r="B18" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="6" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="6" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="6" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="6" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="6" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2677,10 +2874,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2709,10 +2906,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="13"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
@@ -2781,10 +2978,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="13"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
@@ -2882,10 +3079,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="13"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
@@ -2949,10 +3146,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="13"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B11" t="s">

--- a/SBM/仕様書(奥田).xlsx
+++ b/SBM/仕様書(奥田).xlsx
@@ -8,21 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\games\SBM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5191619-0D27-4B6D-8B24-CA02D73FB700}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0F2B32-43FE-4253-81E2-ED100496DE4A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6972" tabRatio="839" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6972" tabRatio="839" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="フローチャート" sheetId="1" r:id="rId1"/>
     <sheet name="タイトル" sheetId="2" r:id="rId2"/>
     <sheet name="world 1-1" sheetId="3" r:id="rId3"/>
     <sheet name="world 1-2" sheetId="8" r:id="rId4"/>
-    <sheet name="ゲームクリアシーン" sheetId="5" r:id="rId5"/>
-    <sheet name="ゲームオーバー画面" sheetId="4" r:id="rId6"/>
-    <sheet name="プレイヤー" sheetId="6" r:id="rId7"/>
-    <sheet name="クリボー" sheetId="7" r:id="rId8"/>
-    <sheet name="クッパ" sheetId="10" r:id="rId9"/>
-    <sheet name="UI" sheetId="9" r:id="rId10"/>
+    <sheet name="world 1-3" sheetId="11" r:id="rId5"/>
+    <sheet name="world 1-4" sheetId="12" r:id="rId6"/>
+    <sheet name="ゲームクリアシーン" sheetId="5" r:id="rId7"/>
+    <sheet name="ゲームオーバー画面" sheetId="4" r:id="rId8"/>
+    <sheet name="プレイヤー(チビマリオ" sheetId="6" r:id="rId9"/>
+    <sheet name="クリボー" sheetId="7" r:id="rId10"/>
+    <sheet name="クッパ" sheetId="10" r:id="rId11"/>
+    <sheet name="UI" sheetId="9" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="119">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -307,10 +309,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>enemy.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>クリアシーンを挿む</t>
     <rPh sb="7" eb="8">
       <t>ハサ</t>
@@ -650,9 +648,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>は、キノコ、またはフラワー</t>
-  </si>
-  <si>
     <t>は、下から叩くと一定時間コインが得られるブロック</t>
   </si>
   <si>
@@ -782,6 +777,566 @@
     <t>タイトルに戻る</t>
     <rPh sb="5" eb="6">
       <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>は、クリボーで画面に登場したら左に動く。端(床)のないところに到達したら落ちてゆく</t>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トウジョウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ユカ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>トウタツ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>は、緑ノコで場面に登場したら左に動く。端(床)のないところに到達したら落ちてゆく</t>
+    <rPh sb="2" eb="3">
+      <t>ミドリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウジョウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ユカ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>トウタツ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム画面:全体図</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ゼンタイズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕様</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>world1-2が始まったら自動で動いてAの土管に入る。(この段階ではプレイヤーは操作できない)</t>
+    <rPh sb="9" eb="10">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ドカン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ダンカイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Aの土管に入って落ちる間はプレイヤーは操作できる。</t>
+    <rPh sb="2" eb="4">
+      <t>ドカン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bの土管に入ったら地下のBから出現する</t>
+    <rPh sb="2" eb="4">
+      <t>ドカン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シュツゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cの土管に入ったらCの土管から出てくる</t>
+    <rPh sb="2" eb="4">
+      <t>ドカン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ドカン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>土管に入るときにSEを流す</t>
+    <rPh sb="0" eb="2">
+      <t>ドカン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dの土管に入ると地上のDの土管から出てくる</t>
+    <rPh sb="2" eb="4">
+      <t>ドカン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>チジョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ドカン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天井はスーパーマリオ一人分の大きさを明けて作る</t>
+    <rPh sb="0" eb="2">
+      <t>テンジョウ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ヒトリブン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リフトは矢印方向に移動する</t>
+    <rPh sb="4" eb="6">
+      <t>ヤジルシ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うまく上に行くリフトに乗って天井を右に歩いて行ったらwolrd移動の土管が現れる(今回はworld1-3しか行かない)</t>
+    <rPh sb="3" eb="4">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>テンジョウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>アル</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ドカン</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>アラワ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kuribo.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>端まで歩いたら落ちる</t>
+    <rPh sb="0" eb="1">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アル</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>は、床の端に行っても反対側に折り返す。</t>
+    <rPh sb="2" eb="3">
+      <t>ユカ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハンタイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動の床は矢印の方向に進む</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ユカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヤジルシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>は、初期位置から下にに30動いたら折り返す初期位置に戻ったらまた下に動き始める。</t>
+    <rPh sb="2" eb="4">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="21" eb="25">
+      <t>ショキイチ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ハジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(座標は左上の座標から参照する)</t>
+    <rPh sb="1" eb="3">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このステージから剥き出しのコインが出現画像のように配置</t>
+    <rPh sb="8" eb="9">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シュツゲン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なおコインはアニメーションしている</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>剥き出しのコインが出現画像のように配置</t>
+    <rPh sb="0" eb="1">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュツゲン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・横は初期位置から左に30動いてから折り返す初期位置に戻ったらまた左に動き始める</t>
+    <rPh sb="1" eb="2">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ハジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・縦は初期位置から下に30動いてから繰り返す初期位置に戻ったらまた下に動き始める</t>
+    <rPh sb="1" eb="2">
+      <t>タテ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ショキイチ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t>ショキイチ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ハジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>は、キノコ、またはフラワー(スーパーマリオとファイヤマリオのときはフラワーを出す。</t>
+    <rPh sb="38" eb="39">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>は、火柱を出す。ブロックの中心から出ているようにする。表示はファイヤボール7個分を表示</t>
+    <rPh sb="2" eb="4">
+      <t>ヒバシラ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>チュウシン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>コブン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>は、隠しコイン、たたくと1枚だけゲットできる</t>
+    <rPh sb="2" eb="3">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イチマイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>は、マリオがこの印のついたらクッパの炎を吐き出す。</t>
+    <rPh sb="8" eb="9">
+      <t>シルシ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ホノオ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>は、クッパがいる位置</t>
+    <rPh sb="8" eb="10">
+      <t>イチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -936,16 +1491,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -954,10 +1503,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1514,22 +2069,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>15239</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>107577</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>107577</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>394598</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>298077</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>298077</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
+        <xdr:cNvPr id="14" name="図 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C28F0B7-210B-4EBB-99C7-E6B59266FF8C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{769E30F7-909F-4CA8-BF16-7F5A308362E0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1539,56 +2094,6 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="123523" y="784058"/>
-          <a:ext cx="15527117" cy="2209800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>107577</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>107577</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>298077</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>298077</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="図 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{769E30F7-909F-4CA8-BF16-7F5A308362E0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1638,7 +2143,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1651,7 +2156,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="197223" y="4365812"/>
+          <a:off x="198504" y="4325471"/>
           <a:ext cx="190500" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1688,7 +2193,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1738,7 +2243,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1788,7 +2293,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1838,7 +2343,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1861,10 +2366,1175 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>170330</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>8964</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>666082</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>143435</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A64E1595-EC9D-4F99-9FFD-46D15DC75489}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="277906" y="842682"/>
+          <a:ext cx="15699894" cy="2232212"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>107577</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>298077</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>280147</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C7C07F1-D48C-4EBA-860D-3BC008F2CA08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="215153" y="6849035"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>116541</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>116542</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>307041</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>307042</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08684726-2C28-4F54-97FE-26079DB6E8FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="224117" y="7297271"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>147746</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>107577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>410308</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>351417</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F4D056D-B960-43D8-9CE1-6C91D0A8139D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="815961" y="7891700"/>
+          <a:ext cx="262562" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>163467</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>73511</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>404447</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>317351</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9D11717-A9AF-4900-892C-EC298683EBC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="831682" y="6591542"/>
+          <a:ext cx="240980" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>172019</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>101301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>398585</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>345141</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{868D72BF-DD75-461E-AFA9-307C94508D8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="840234" y="7041363"/>
+          <a:ext cx="226566" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>162159</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>64098</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>398585</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>307938</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5F6C016-A8CE-45E0-AC2D-EF96A4FEBAE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="830374" y="7426190"/>
+          <a:ext cx="236426" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>140298</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>71719</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>445098</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>10759</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A64D4DF2-6136-4C00-B6A8-1E4FA1997269}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="810858" y="7828879"/>
+          <a:ext cx="304800" cy="358140"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>178226</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>410308</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>333487</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{985DCDC1-5E7A-4615-9515-B4180B2B0BE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="846441" y="9139862"/>
+          <a:ext cx="232082" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>162157</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>116542</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>398585</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>360382</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF49D749-622B-461E-A0CC-95048CA259FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="830372" y="9588788"/>
+          <a:ext cx="236428" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>350520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D96203E-7360-49D3-8A88-41861C2031E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="807720" y="8221980"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>664028</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>65315</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>359218</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>130629</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="図 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB6CD895-23D4-409B-B25F-5D1542543099}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="664028" y="892629"/>
+          <a:ext cx="17917876" cy="4180114"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>181916</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>426721</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>344300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E22D875B-55FD-48E4-A6D0-BAD261A73995}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="852476" y="2918459"/>
+          <a:ext cx="244805" cy="306201"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>54381</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>448408</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>394446</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D156AD0A-B1B7-4AF9-BC6C-4485216D94B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="845820" y="3353841"/>
+          <a:ext cx="273148" cy="340065"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>365760</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D227940-9907-40E0-977E-11E6AB60E284}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="853440" y="3756660"/>
+          <a:ext cx="327660" cy="327660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>403860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35C0240A-9108-4114-9F61-37F5C1648AF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="822960" y="4175760"/>
+          <a:ext cx="365760" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>655319</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>204228</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B1E4CCF-4D84-4A32-9954-F2C0B38E460C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="655319" y="830580"/>
+          <a:ext cx="18995149" cy="1737360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB40E280-A6B1-44D4-B601-C25CDDB709FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="670560" y="822960"/>
+          <a:ext cx="20726400" cy="1943100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>297180</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECD10D76-78C3-4402-964D-88969C49C6B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="868680" y="4701540"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECD8FF93-4D43-4014-B0F8-A256FC254527}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="868680" y="3451860"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>289560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EC9BBB6-F616-4A58-A35F-136D0A60767B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="868680" y="4274820"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>297180</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CFAAB6D-9F8D-439D-BB77-44BA56E0251E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="868680" y="3863340"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>259080</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27CC5688-6005-41EE-BCBC-B0DD91F43850}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="853440" y="5082540"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1919,7 +3589,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1974,7 +3644,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2294,7 +3964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22:E22"/>
     </sheetView>
   </sheetViews>
@@ -2307,100 +3977,100 @@
     </row>
     <row r="2" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="3" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="9"/>
+      <c r="E3" s="14"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="G4" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="9"/>
+      <c r="D6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="14"/>
     </row>
     <row r="7" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="8" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C8" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="12"/>
+      <c r="C8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="10"/>
       <c r="I8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
       <c r="I9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D10" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="9"/>
+      <c r="D10" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="14"/>
     </row>
     <row r="11" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="12" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C12" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="12"/>
+      <c r="C12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="10"/>
     </row>
     <row r="13" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="14" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D14" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="E14" s="14"/>
+      <c r="D14" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="16" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C16" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="12"/>
+      <c r="C16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="10"/>
     </row>
     <row r="17" spans="3:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="18" spans="3:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C20" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="11"/>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="D22" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="E18" s="14"/>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C20" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D20" s="13"/>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="D22" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E22" s="15"/>
+      <c r="E22" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C12:D12"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C12:D12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -2415,6 +4085,145 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44011D24-CB33-4CEA-943D-8A5934F25E31}">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="str">
+        <f>フローチャート!A1</f>
+        <v>ゲームタイトル :スーパーマリオブラザーズ</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="11"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C43DE806-201C-44CF-A009-EA4BB7A281C7}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="str">
+        <f>フローチャート!A1</f>
+        <v>ゲームタイトル :スーパーマリオブラザーズ</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B3" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="11"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F123861E-DFF3-4991-A5EF-702E3162478D}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -2432,7 +4241,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2461,89 +4270,89 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="13"/>
+      <c r="C3" s="11"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B13" s="1"/>
@@ -2681,10 +4490,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:R44"/>
+  <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2700,11 +4509,11 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
@@ -2713,116 +4522,131 @@
     </row>
     <row r="15" spans="1:18" ht="22.2" x14ac:dyDescent="0.45">
       <c r="B15" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="22.2" x14ac:dyDescent="0.45">
       <c r="B16" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="22.2" x14ac:dyDescent="0.45">
       <c r="B17" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C19" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C20" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C21" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C22" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C23" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B29" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B30" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B31" t="s">
-        <v>74</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C24" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C25" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="6" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
-        <v>78</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
-        <v>82</v>
-      </c>
-      <c r="E34" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
-        <v>81</v>
-      </c>
-      <c r="E35" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B36" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B37" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B44" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B38" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
+      <c r="E39" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B41" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B43" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2839,25 +4663,293 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C0DEF63-E498-48F7-BD00-8BD2A3A5E372}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" ht="28.8" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="str">
         <f>フローチャート!A1</f>
         <v>ゲームタイトル :スーパーマリオブラザーズ</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="B24" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="B25" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="B26" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="B27" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C29" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C30" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C31" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C32" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C34" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C35" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="B36" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="B37" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="B38" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="B39" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="B40" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="B41" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="B42" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6A9D2F-2B8A-4B47-A65E-1550EEEBBCBF}">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="str">
+        <f>フローチャート!A1</f>
+        <v>ゲームタイトル :スーパーマリオブラザーズ</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C14" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C15" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C16" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="B17" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="B18" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="B19" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="B20" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="B21" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A95A8DE-0BC2-498F-B0D1-C86CA0A0C147}">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="str">
+        <f>フローチャート!A1</f>
+        <v>ゲームタイトル :スーパーマリオブラザーズ</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C15" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C16" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C17" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C18" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C19" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="B21" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -2874,10 +4966,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B3" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="13"/>
+      <c r="B3" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2889,7 +4981,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C23"/>
   <sheetViews>
@@ -2906,10 +4998,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="13"/>
+      <c r="C3" s="11"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
@@ -2949,174 +5041,6 @@
     <row r="23" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
         <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B3:C3"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1643A83A-8E45-4118-9B82-AB4F2439567F}">
-  <dimension ref="A1:E22"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="str">
-        <f>フローチャート!A1</f>
-        <v>ゲームタイトル :スーパーマリオブラザーズ</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B3" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="13"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B22" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B3:C3"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44011D24-CB33-4CEA-943D-8A5934F25E31}">
-  <dimension ref="A1:C18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="str">
-        <f>フローチャート!A1</f>
-        <v>ゲームタイトル :スーパーマリオブラザーズ</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B3" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="13"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B18" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3130,11 +5054,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C43DE806-201C-44CF-A009-EA4BB7A281C7}">
-  <dimension ref="A1:C18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1643A83A-8E45-4118-9B82-AB4F2439567F}">
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3146,44 +5070,78 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B3" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="13"/>
+      <c r="B3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="11"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B18" t="s">
-        <v>64</v>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -3192,6 +5150,6 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/SBM/仕様書(奥田).xlsx
+++ b/SBM/仕様書(奥田).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\games\SBM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0F2B32-43FE-4253-81E2-ED100496DE4A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5980BA8-6BE6-40AF-BE04-2CC4C142E3E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6972" tabRatio="839" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6972" tabRatio="839" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="フローチャート" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="118">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -508,38 +508,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>左上にMARIOと出すその下にスコアを表示する</t>
-    <rPh sb="0" eb="1">
-      <t>ヒダリ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>全体のゲーム画面の大きさは400×600</t>
-    <rPh sb="0" eb="2">
-      <t>ゼンタイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>オオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>クッパ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1337,6 +1305,19 @@
     <t>は、クッパがいる位置</t>
     <rPh sb="8" eb="10">
       <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全体のゲーム画面の大きさは640×480</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オオ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1491,21 +1472,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="56" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1513,6 +1479,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3964,8 +3945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22:E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3977,31 +3958,31 @@
     </row>
     <row r="2" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="3" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="14"/>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="G4" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="14"/>
+      <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="8" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="10"/>
+      <c r="D8" s="12"/>
       <c r="I8" t="s">
         <v>54</v>
       </c>
@@ -4010,67 +3991,67 @@
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
       <c r="I9" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="14"/>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="12" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="10"/>
+      <c r="D12" s="12"/>
     </row>
     <row r="13" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="14" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D14" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E14" s="9"/>
+      <c r="D14" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="13"/>
     </row>
     <row r="15" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="16" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="10"/>
+      <c r="D16" s="12"/>
     </row>
     <row r="17" spans="3:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="18" spans="3:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="13"/>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C20" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="14"/>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="D22" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C20" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" s="11"/>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="D22" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="E22" s="12"/>
+      <c r="E22" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="D22:E22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -4101,10 +4082,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="11"/>
+      <c r="C3" s="14"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
@@ -4128,12 +4109,12 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.45">
@@ -4143,7 +4124,7 @@
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -4173,10 +4154,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B3" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="11"/>
+      <c r="B3" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="14"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
@@ -4185,22 +4166,22 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.45">
@@ -4210,7 +4191,7 @@
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -4225,7 +4206,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F123861E-DFF3-4991-A5EF-702E3162478D}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
@@ -4233,15 +4214,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" ht="28.8" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="str">
         <f>フローチャート!A1</f>
         <v>ゲームタイトル :スーパーマリオブラザーズ</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -4270,89 +4246,89 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11"/>
+      <c r="C3" s="14"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B13" s="1"/>
@@ -4509,11 +4485,11 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
@@ -4525,7 +4501,7 @@
         <v>40</v>
       </c>
       <c r="R15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="22.2" x14ac:dyDescent="0.45">
@@ -4533,60 +4509,60 @@
         <v>41</v>
       </c>
       <c r="R16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="22.2" x14ac:dyDescent="0.45">
       <c r="B17" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C19" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C20" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C21" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C22" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C24" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C25" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B26" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.45">
@@ -4596,53 +4572,53 @@
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B36" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B37" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B38" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E38" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
+        <v>77</v>
+      </c>
+      <c r="E39" t="s">
         <v>79</v>
-      </c>
-      <c r="E39" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B40" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B41" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.45">
@@ -4679,110 +4655,110 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="22.2" x14ac:dyDescent="0.45">
       <c r="B24" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="22.2" x14ac:dyDescent="0.45">
       <c r="B25" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="22.2" x14ac:dyDescent="0.45">
       <c r="B26" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="22.2" x14ac:dyDescent="0.45">
       <c r="B27" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C29" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C30" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C31" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C32" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C34" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C35" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="22.2" x14ac:dyDescent="0.45">
       <c r="B36" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="22.2" x14ac:dyDescent="0.45">
       <c r="B37" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="22.2" x14ac:dyDescent="0.45">
       <c r="B38" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="22.2" x14ac:dyDescent="0.45">
       <c r="B39" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="22.2" x14ac:dyDescent="0.45">
       <c r="B40" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="22.2" x14ac:dyDescent="0.45">
       <c r="B41" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="2:3" ht="22.2" x14ac:dyDescent="0.45">
       <c r="B42" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -4820,53 +4796,53 @@
     </row>
     <row r="13" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C14" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C15" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C16" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="22.2" x14ac:dyDescent="0.45">
       <c r="B17" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" t="s">
         <v>106</v>
-      </c>
-      <c r="F17" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="22.2" x14ac:dyDescent="0.45">
       <c r="B18" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="22.2" x14ac:dyDescent="0.45">
       <c r="B19" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="22.2" x14ac:dyDescent="0.45">
       <c r="B20" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="22.2" x14ac:dyDescent="0.45">
       <c r="B21" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -4881,7 +4857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A95A8DE-0BC2-498F-B0D1-C86CA0A0C147}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
@@ -4905,40 +4881,40 @@
     </row>
     <row r="15" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C15" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C16" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C17" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C18" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C19" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" t="s">
         <v>106</v>
-      </c>
-      <c r="F20" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="22.2" x14ac:dyDescent="0.45">
       <c r="B21" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -4966,10 +4942,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="11"/>
+      <c r="C3" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4998,10 +4974,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="11"/>
+      <c r="C3" s="14"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
@@ -5070,10 +5046,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="11"/>
+      <c r="C3" s="14"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B10" t="s">

--- a/SBM/仕様書(奥田).xlsx
+++ b/SBM/仕様書(奥田).xlsx
@@ -8,23 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\games\SBM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5980BA8-6BE6-40AF-BE04-2CC4C142E3E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59EBC0E-1761-425F-8BAF-95C6E3A9278D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6972" tabRatio="839" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6972" tabRatio="859" firstSheet="5" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="フローチャート" sheetId="1" r:id="rId1"/>
-    <sheet name="タイトル" sheetId="2" r:id="rId2"/>
-    <sheet name="world 1-1" sheetId="3" r:id="rId3"/>
-    <sheet name="world 1-2" sheetId="8" r:id="rId4"/>
-    <sheet name="world 1-3" sheetId="11" r:id="rId5"/>
-    <sheet name="world 1-4" sheetId="12" r:id="rId6"/>
-    <sheet name="ゲームクリアシーン" sheetId="5" r:id="rId7"/>
-    <sheet name="ゲームオーバー画面" sheetId="4" r:id="rId8"/>
-    <sheet name="プレイヤー(チビマリオ" sheetId="6" r:id="rId9"/>
-    <sheet name="クリボー" sheetId="7" r:id="rId10"/>
-    <sheet name="クッパ" sheetId="10" r:id="rId11"/>
-    <sheet name="UI" sheetId="9" r:id="rId12"/>
+    <sheet name="キャラ仕様" sheetId="16" r:id="rId2"/>
+    <sheet name="タイトル" sheetId="2" r:id="rId3"/>
+    <sheet name="world 1-1" sheetId="3" r:id="rId4"/>
+    <sheet name="world 1-2" sheetId="8" r:id="rId5"/>
+    <sheet name="world 1-3" sheetId="11" r:id="rId6"/>
+    <sheet name="world 1-4" sheetId="12" r:id="rId7"/>
+    <sheet name="ゲームクリアシーン" sheetId="5" r:id="rId8"/>
+    <sheet name="エンディング" sheetId="15" r:id="rId9"/>
+    <sheet name="ゲームオーバー画面" sheetId="4" r:id="rId10"/>
+    <sheet name="プレイヤー(チビマリオ" sheetId="6" r:id="rId11"/>
+    <sheet name="プレイヤー(スーパーマリオ" sheetId="13" r:id="rId12"/>
+    <sheet name="プレイヤーフ(ファイヤマリオ" sheetId="14" r:id="rId13"/>
+    <sheet name="クリボー" sheetId="7" r:id="rId14"/>
+    <sheet name="クッパ" sheetId="10" r:id="rId15"/>
+    <sheet name="UI" sheetId="9" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="151">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -504,10 +508,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ゲームクリアシーン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>クッパ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1318,6 +1318,325 @@
     </rPh>
     <rPh sb="9" eb="10">
       <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Timeが0になるとゲームオーバー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Time:400</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵に当たると死ぬ</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Time:300</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各ステージにTimeが設けられている</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>モウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-1、1-2は400秒</t>
+    <rPh sb="11" eb="12">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-3、1-4は300秒</t>
+    <rPh sb="11" eb="12">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルに戻る</t>
+    <rPh sb="5" eb="6">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最初の残機は3</t>
+    <rPh sb="0" eb="2">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ザンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>常にUIを表示する</t>
+    <rPh sb="0" eb="1">
+      <t>ツネ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕様</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゴールしたら旗を降ろしながらマリオも降りて城に入る演出をする</t>
+    <rPh sb="6" eb="7">
+      <t>ハタ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>エンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイヤでクッパを倒すかクッパを落としてから後ろに行く</t>
+    <rPh sb="9" eb="10">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ウシ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そこのピーチ姫いてthank you playingと出す。</t>
+    <rPh sb="6" eb="7">
+      <t>ヒメ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マリオ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリボー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ノコノコ(緑、赤)</t>
+    <rPh sb="5" eb="6">
+      <t>ミドリ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パックンフラワー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スーパーマリオ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイヤマリオ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハイパー無敵マリオ</t>
+    <rPh sb="4" eb="6">
+      <t>ムテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示場所</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前を出す場所 : MARIO と出す。</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スコア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コインを取った枚数を出す場所</t>
+    <rPh sb="4" eb="5">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>マイスウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WORLDと表示する場所</t>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-を表示する場所</t>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージごとに変わるステージ数</t>
+    <rPh sb="7" eb="8">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TIMEを表示する場所</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TIMEの数</t>
+    <rPh sb="5" eb="6">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>落ちたときはチビマリオの配列6を出して死ぬ</t>
+    <rPh sb="0" eb="1">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵に触れたときはチビマリオに戻すその時クールタイム5秒を設ける</t>
+    <rPh sb="14" eb="15">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>モウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下を押したとき配列2を出してしゃがむ</t>
+    <rPh sb="0" eb="1">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コインアニメーションを表示する場所</t>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バショ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1472,6 +1791,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="56" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1481,20 +1812,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1969,6 +2288,159 @@
         <a:ln w="28575">
           <a:tailEnd type="triangle"/>
         </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>26021</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104079</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>29737</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>144966</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線コネクタ 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA9CBDDE-AB78-4703-8BA7-D8429EBE79B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4040460" y="2364059"/>
+          <a:ext cx="3716" cy="1944029"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>41260</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>138801</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19887</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>138801</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線コネクタ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BA24443-01C0-40E9-A62D-FF40600519CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3386626" y="4301923"/>
+          <a:ext cx="647700" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>33825</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>105906</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12452</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>105906</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線コネクタ 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90CA88A2-8E2C-495B-9DE3-78EF8DA37F97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3379191" y="3317457"/>
+          <a:ext cx="647700" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -3945,9 +4417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -3958,31 +4428,33 @@
     </row>
     <row r="2" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="3" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="9"/>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="G4" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="G5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="9"/>
+      <c r="E6" s="13"/>
     </row>
     <row r="7" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="8" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="12"/>
+      <c r="D8" s="9"/>
       <c r="I8" t="s">
         <v>54</v>
       </c>
@@ -3991,73 +4463,90 @@
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
       <c r="I9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I11" t="s">
+        <v>121</v>
+      </c>
+    </row>
     <row r="12" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="12"/>
-    </row>
-    <row r="13" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+      <c r="D12" s="9"/>
+      <c r="I12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I13" t="s">
+        <v>123</v>
+      </c>
+    </row>
     <row r="14" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D14" s="11" t="s">
-        <v>84</v>
+      <c r="D14" s="14" t="s">
+        <v>83</v>
       </c>
       <c r="E14" s="13"/>
     </row>
-    <row r="15" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="15" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I15" t="s">
+        <v>125</v>
+      </c>
+    </row>
     <row r="16" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="12"/>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="3:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="18" spans="3:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="13"/>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C20" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="E18" s="13"/>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C20" s="14" t="s">
+      <c r="D20" s="10"/>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="D22" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D20" s="14"/>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="D22" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="E22" s="15"/>
+      <c r="E22" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C12:D12"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C12:D12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="D3:E3" location="タイトル!A1" display="タイトル" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="D6:E6" location="ゲーム画面!A1" display="ゲーム画面" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="D22:E22" location="タイトル!A1" display="タイトルに戻る" xr:uid="{8E76561B-7649-4614-8DEB-60C954BD3140}"/>
+    <hyperlink ref="D14:E14" location="'world 1-3'!A1" display="world1-3" xr:uid="{9530A5F6-79E5-4C3C-9670-FC9A1C88CFA9}"/>
+    <hyperlink ref="D18:E18" location="'world 1-4'!A1" display="world1-4" xr:uid="{48FA64F1-3338-4863-8D28-E183B1AA55CC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4066,6 +4555,298 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="str">
+        <f>フローチャート!A1</f>
+        <v>ゲームタイトル :スーパーマリオブラザーズ</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="10"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1643A83A-8E45-4118-9B82-AB4F2439567F}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="str">
+        <f>フローチャート!A1</f>
+        <v>ゲームタイトル :スーパーマリオブラザーズ</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="10"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5541AFD3-F26D-42FD-8F5D-DD5C20252760}">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="str">
+        <f>フローチャート!A1</f>
+        <v>ゲームタイトル :スーパーマリオブラザーズ</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="10"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E34055-E1F2-46A0-A72F-CBBD91FDECA4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="str">
+        <f>フローチャート!A1</f>
+        <v>ゲームタイトル :スーパーマリオブラザーズ</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44011D24-CB33-4CEA-943D-8A5934F25E31}">
   <dimension ref="A1:C19"/>
   <sheetViews>
@@ -4082,10 +4863,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="14"/>
+      <c r="C3" s="10"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
@@ -4109,12 +4890,12 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.45">
@@ -4124,7 +4905,7 @@
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -4137,7 +4918,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C43DE806-201C-44CF-A009-EA4BB7A281C7}">
   <dimension ref="A1:C18"/>
   <sheetViews>
@@ -4154,10 +4935,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B3" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="14"/>
+      <c r="B3" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="10"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
@@ -4166,22 +4947,22 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.45">
@@ -4191,7 +4972,7 @@
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -4204,20 +4985,73 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F123861E-DFF3-4991-A5EF-702E3162478D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="str">
         <f>フローチャート!A1</f>
         <v>ゲームタイトル :スーパーマリオブラザーズ</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -4227,6 +5061,74 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80908246-7FCB-4D34-B1C8-B0D6E3A52112}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B4" s="15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B5" s="15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B6" s="15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B8" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B11" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B4" location="'プレイヤー(チビマリオ'!A1" display="マリオ" xr:uid="{4C3E411B-5173-4459-B0D6-64BADBB68DC2}"/>
+    <hyperlink ref="B5" location="'プレイヤー(スーパーマリオ'!A1" display="スーパーマリオ" xr:uid="{6D7DFE0F-990C-482E-877D-5040FAB5A81D}"/>
+    <hyperlink ref="B6" location="'プレイヤーフ(ファイヤマリオ'!A1" display="ファイヤマリオ" xr:uid="{E799FC68-8926-4C6D-9FD8-95D142495A95}"/>
+    <hyperlink ref="B8" location="クリボー!A1" display="クリボー" xr:uid="{66319828-35AC-46C6-8794-986EE24CBD4B}"/>
+    <hyperlink ref="B11" location="クッパ!A1" display="クッパ" xr:uid="{9A49FCF5-F38F-4C3E-B75B-A1E3D9090FE2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H39"/>
   <sheetViews>
@@ -4246,89 +5148,89 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="14"/>
+      <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B13" s="1"/>
@@ -4357,6 +5259,11 @@
     <row r="17" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.45">
@@ -4464,12 +5371,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4485,11 +5392,11 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
@@ -4501,7 +5408,7 @@
         <v>40</v>
       </c>
       <c r="R15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="22.2" x14ac:dyDescent="0.45">
@@ -4509,116 +5416,124 @@
         <v>41</v>
       </c>
       <c r="R16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" ht="22.2" x14ac:dyDescent="0.45">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="22.2" x14ac:dyDescent="0.45">
       <c r="B17" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" t="s">
+      <c r="C18" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C19" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C19" s="6" t="s">
+    </row>
+    <row r="20" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C20" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C20" s="6" t="s">
+    <row r="21" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C21" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C21" s="6" t="s">
+    <row r="22" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C22" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C23" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C22" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C23" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C24" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C25" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C25" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B26" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.45">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="B27" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.45">
@@ -4637,12 +5552,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C0DEF63-E498-48F7-BD00-8BD2A3A5E372}">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4655,110 +5570,118 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="22.2" x14ac:dyDescent="0.45">
       <c r="B24" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="22.2" x14ac:dyDescent="0.45">
       <c r="B25" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="22.2" x14ac:dyDescent="0.45">
       <c r="B26" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="22.2" x14ac:dyDescent="0.45">
       <c r="B27" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C29" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C30" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C31" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C32" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C33" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C34" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C35" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C35" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" ht="22.2" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:6" ht="22.2" x14ac:dyDescent="0.45">
       <c r="B36" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="B37" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="2:3" ht="22.2" x14ac:dyDescent="0.45">
-      <c r="B37" s="6" t="s">
+    <row r="38" spans="2:6" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="B38" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="38" spans="2:3" ht="22.2" x14ac:dyDescent="0.45">
-      <c r="B38" s="7" t="s">
+    <row r="39" spans="2:6" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="B39" s="7" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="2:3" ht="22.2" x14ac:dyDescent="0.45">
-      <c r="B39" s="7" t="s">
+    <row r="40" spans="2:6" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="B40" s="7" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="2:3" ht="22.2" x14ac:dyDescent="0.45">
-      <c r="B40" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" ht="22.2" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:6" ht="22.2" x14ac:dyDescent="0.45">
       <c r="B41" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="B42" s="7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="42" spans="2:3" ht="22.2" x14ac:dyDescent="0.45">
-      <c r="B42" s="7" t="s">
-        <v>108</v>
+    <row r="43" spans="2:6" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="B43" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F43" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -4768,12 +5691,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6A9D2F-2B8A-4B47-A65E-1550EEEBBCBF}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4796,125 +5719,61 @@
     </row>
     <row r="13" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C14" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C15" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C16" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="22.2" x14ac:dyDescent="0.45">
       <c r="B17" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="22.2" x14ac:dyDescent="0.45">
       <c r="B18" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="22.2" x14ac:dyDescent="0.45">
       <c r="B19" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="22.2" x14ac:dyDescent="0.45">
       <c r="B20" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="22.2" x14ac:dyDescent="0.45">
       <c r="B21" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A95A8DE-0BC2-498F-B0D1-C86CA0A0C147}">
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="str">
-        <f>フローチャート!A1</f>
-        <v>ゲームタイトル :スーパーマリオブラザーズ</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C15" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C16" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C17" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C18" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C19" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="F20" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="22.2" x14ac:dyDescent="0.45">
-      <c r="B21" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="B22" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -4926,11 +5785,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A95A8DE-0BC2-498F-B0D1-C86CA0A0C147}">
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4942,190 +5801,136 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B3" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="14"/>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C15" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C16" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C17" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C18" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C19" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="B21" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="B22" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" t="s">
+        <v>120</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B3:C3"/>
-  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="str">
+        <f>フローチャート!A1</f>
+        <v>ゲームタイトル :スーパーマリオブラザーズ</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C23"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9393BF04-CFD1-47B3-B2F6-83C765A26982}">
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" ht="28.8" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="str">
         <f>フローチャート!A1</f>
         <v>ゲームタイトル :スーパーマリオブラザーズ</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B3" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="14"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B14" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B23" t="s">
-        <v>32</v>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B3:C3"/>
-  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1643A83A-8E45-4118-9B82-AB4F2439567F}">
-  <dimension ref="A1:E22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="str">
-        <f>フローチャート!A1</f>
-        <v>ゲームタイトル :スーパーマリオブラザーズ</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B3" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="14"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B22" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B3:C3"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SBM/仕様書(奥田).xlsx
+++ b/SBM/仕様書(奥田).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\games\SBM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59EBC0E-1761-425F-8BAF-95C6E3A9278D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D37D5E-4932-40A3-A64E-B81BEFB98F8A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6972" tabRatio="859" firstSheet="5" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6972" tabRatio="859" firstSheet="4" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="フローチャート" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="163">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -1637,6 +1637,69 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80,32</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MARIOを作る</t>
+    <rPh sb="6" eb="7">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>240,48</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>272,48と288,48</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×の座標は256,48</t>
+    <rPh sb="2" eb="4">
+      <t>ザヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>384,32</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WORLDを作る</t>
+    <rPh sb="6" eb="7">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>400,48</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>432,48</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>512,48</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>528,48</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BとCの土管からパックンフラワーが現れる</t>
+    <rPh sb="4" eb="6">
+      <t>ドカン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>アラワ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1791,6 +1854,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1802,18 +1877,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2978,13 +3041,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>147746</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>107577</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>410308</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>351417</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3028,13 +3091,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>163467</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>73511</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>404447</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>317351</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3078,13 +3141,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>172019</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>101301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>398585</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>345141</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3128,13 +3191,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>162159</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>64098</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>398585</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>307938</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3178,13 +3241,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>140298</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>71719</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>445098</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>10759</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3228,13 +3291,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>178226</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>410308</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>333487</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3278,13 +3341,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>162157</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>116542</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>398585</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>360382</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3328,13 +3391,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>350520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4428,10 +4491,10 @@
     </row>
     <row r="2" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="3" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="13"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="G4" s="2" t="s">
@@ -4444,17 +4507,17 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="13"/>
+      <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="8" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="9"/>
+      <c r="D8" s="13"/>
       <c r="I8" t="s">
         <v>54</v>
       </c>
@@ -4467,10 +4530,10 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="13"/>
+      <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I11" t="s">
@@ -4478,10 +4541,10 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="9"/>
+      <c r="D12" s="13"/>
       <c r="I12" t="s">
         <v>122</v>
       </c>
@@ -4492,10 +4555,10 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="E14" s="13"/>
+      <c r="E14" s="10"/>
     </row>
     <row r="15" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I15" t="s">
@@ -4503,42 +4566,42 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="9"/>
+      <c r="D16" s="13"/>
     </row>
     <row r="17" spans="3:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="18" spans="3:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="13"/>
+      <c r="E18" s="10"/>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="10"/>
+      <c r="D20" s="14"/>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="11"/>
+      <c r="E22" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="D22:E22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -4571,10 +4634,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="14"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
@@ -4643,10 +4706,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="14"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
@@ -4749,10 +4812,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="14"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
@@ -4863,10 +4926,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="14"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
@@ -4922,7 +4985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C43DE806-201C-44CF-A009-EA4BB7A281C7}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
@@ -4935,10 +4998,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="14"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
@@ -4987,21 +5050,21 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F123861E-DFF3-4991-A5EF-702E3162478D}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="str">
         <f>フローチャート!A1</f>
         <v>ゲームタイトル :スーパーマリオブラザーズ</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>127</v>
       </c>
@@ -5009,54 +5072,91 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F8" t="s">
+        <v>156</v>
+      </c>
+      <c r="G8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>146</v>
+      </c>
+      <c r="F12" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5076,17 +5176,17 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="8" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="8" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="8" t="s">
         <v>136</v>
       </c>
     </row>
@@ -5096,7 +5196,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="8" t="s">
         <v>132</v>
       </c>
     </row>
@@ -5111,7 +5211,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="8" t="s">
         <v>55</v>
       </c>
     </row>
@@ -5148,89 +5248,89 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="14"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B13" s="1"/>
@@ -5392,11 +5492,11 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
@@ -5554,10 +5654,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C0DEF63-E498-48F7-BD00-8BD2A3A5E372}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -5598,89 +5698,94 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B28" t="s">
+    <row r="28" spans="2:3" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="B28" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B29" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C29" s="6" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C29" s="6" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C30" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C31" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C32" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C33" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C33" t="s">
+    <row r="34" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C34" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C34" s="6" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C35" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C36" s="6" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" ht="22.2" x14ac:dyDescent="0.45">
-      <c r="B36" s="6" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="37" spans="2:6" ht="22.2" x14ac:dyDescent="0.45">
       <c r="B37" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="B38" s="6" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" ht="22.2" x14ac:dyDescent="0.45">
-      <c r="B38" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="22.2" x14ac:dyDescent="0.45">
       <c r="B39" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="22.2" x14ac:dyDescent="0.45">
       <c r="B40" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="2:6" ht="22.2" x14ac:dyDescent="0.45">
       <c r="B41" s="7" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="2:6" ht="22.2" x14ac:dyDescent="0.45">
       <c r="B42" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="B43" s="7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="43" spans="2:6" ht="22.2" x14ac:dyDescent="0.45">
-      <c r="B43" s="6" t="s">
+    <row r="44" spans="2:6" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="B44" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F44" t="s">
         <v>118</v>
       </c>
     </row>

--- a/SBM/仕様書(奥田).xlsx
+++ b/SBM/仕様書(奥田).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\games\SBM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D37D5E-4932-40A3-A64E-B81BEFB98F8A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37C2225-B652-4C20-93DF-364811717DE5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6972" tabRatio="859" firstSheet="4" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6972" tabRatio="859" firstSheet="6" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="フローチャート" sheetId="1" r:id="rId1"/>
@@ -24,11 +24,13 @@
     <sheet name="エンディング" sheetId="15" r:id="rId9"/>
     <sheet name="ゲームオーバー画面" sheetId="4" r:id="rId10"/>
     <sheet name="プレイヤー(チビマリオ" sheetId="6" r:id="rId11"/>
-    <sheet name="プレイヤー(スーパーマリオ" sheetId="13" r:id="rId12"/>
-    <sheet name="プレイヤーフ(ファイヤマリオ" sheetId="14" r:id="rId13"/>
-    <sheet name="クリボー" sheetId="7" r:id="rId14"/>
-    <sheet name="クッパ" sheetId="10" r:id="rId15"/>
-    <sheet name="UI" sheetId="9" r:id="rId16"/>
+    <sheet name="プレイヤー(チビスター" sheetId="18" r:id="rId12"/>
+    <sheet name="プレイヤー(スーパーマリオ" sheetId="13" r:id="rId13"/>
+    <sheet name="プレイヤー(ファイヤマリオ" sheetId="14" r:id="rId14"/>
+    <sheet name="プレイヤー(スター" sheetId="17" r:id="rId15"/>
+    <sheet name="クリボー" sheetId="7" r:id="rId16"/>
+    <sheet name="クッパ" sheetId="10" r:id="rId17"/>
+    <sheet name="UI" sheetId="9" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="168">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -1700,6 +1702,64 @@
     </rPh>
     <rPh sb="17" eb="18">
       <t>アラワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプはxキー(Aボタン)</t>
+  </si>
+  <si>
+    <t>敵に当たっても死なない</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キノコを採ったら別のアニメーションを入れる(デカアニメーしょん</t>
+    <rPh sb="4" eb="5">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10秒間無敵になる</t>
+    <rPh sb="2" eb="4">
+      <t>ビョウカン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ムテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終わったら取った時の状態に戻す。</t>
+    <rPh sb="0" eb="1">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>モド</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1857,13 +1917,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1876,6 +1933,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4491,7 +4551,7 @@
     </row>
     <row r="2" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="3" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="10"/>
@@ -4507,17 +4567,17 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="15" t="s">
         <v>39</v>
       </c>
       <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="8" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="13"/>
+      <c r="D8" s="12"/>
       <c r="I8" t="s">
         <v>54</v>
       </c>
@@ -4530,7 +4590,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="15" t="s">
         <v>38</v>
       </c>
       <c r="E10" s="10"/>
@@ -4541,10 +4601,10 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="13"/>
+      <c r="D12" s="12"/>
       <c r="I12" t="s">
         <v>122</v>
       </c>
@@ -4555,7 +4615,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="9" t="s">
         <v>83</v>
       </c>
       <c r="E14" s="10"/>
@@ -4566,42 +4626,42 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="13"/>
+      <c r="D16" s="12"/>
     </row>
     <row r="17" spans="3:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="18" spans="3:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="9" t="s">
         <v>84</v>
       </c>
       <c r="E18" s="10"/>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="14"/>
+      <c r="D20" s="13"/>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="15"/>
+      <c r="E22" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C12:D12"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C12:D12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -4634,10 +4694,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="14"/>
+      <c r="C3" s="13"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
@@ -4691,10 +4751,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1643A83A-8E45-4118-9B82-AB4F2439567F}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:C20"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4706,10 +4766,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="14"/>
+      <c r="C3" s="13"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
@@ -4769,19 +4829,24 @@
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B22" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" t="s">
-        <v>11</v>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B24" t="s">
         <v>42</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E24" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4796,11 +4861,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5541AFD3-F26D-42FD-8F5D-DD5C20252760}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B3C88D3-3964-4659-BDA1-22A8141BBFAE}">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B19" sqref="B19:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4811,11 +4876,97 @@
         <v>ゲームタイトル :スーパーマリオブラザーズ</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5541AFD3-F26D-42FD-8F5D-DD5C20252760}">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="str">
+        <f>フローチャート!A1</f>
+        <v>ゲームタイトル :スーパーマリオブラザーズ</v>
+      </c>
+    </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="14"/>
+      <c r="C3" s="13"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
@@ -4889,7 +5040,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E34055-E1F2-46A0-A72F-CBBD91FDECA4}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4909,7 +5060,97 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D85A2C8-DD79-41EE-B3C7-F0FD3781794B}">
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="str">
+        <f>フローチャート!A1</f>
+        <v>ゲームタイトル :スーパーマリオブラザーズ</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44011D24-CB33-4CEA-943D-8A5934F25E31}">
   <dimension ref="A1:C19"/>
   <sheetViews>
@@ -4926,10 +5167,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="14"/>
+      <c r="C3" s="13"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
@@ -4981,11 +5222,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C43DE806-201C-44CF-A009-EA4BB7A281C7}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
@@ -4998,10 +5239,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="14"/>
+      <c r="C3" s="13"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
@@ -5048,7 +5289,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F123861E-DFF3-4991-A5EF-702E3162478D}">
   <dimension ref="A1:H12"/>
   <sheetViews>
@@ -5248,89 +5489,89 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="14"/>
+      <c r="C3" s="13"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B13" s="1"/>
@@ -5492,11 +5733,11 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B14" t="s">

--- a/SBM/仕様書(奥田).xlsx
+++ b/SBM/仕様書(奥田).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\games\SBM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37C2225-B652-4C20-93DF-364811717DE5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC554590-ABB8-41D2-838F-228E3B4556D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6972" tabRatio="859" firstSheet="6" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6972" tabRatio="859" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="フローチャート" sheetId="1" r:id="rId1"/>
@@ -1722,19 +1722,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>キノコを採ったら別のアニメーションを入れる(デカアニメーしょん</t>
-    <rPh sb="4" eb="5">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>10秒間無敵になる</t>
     <rPh sb="2" eb="4">
       <t>ビョウカン</t>
@@ -1760,6 +1747,37 @@
     </rPh>
     <rPh sb="13" eb="14">
       <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キノコを採ったらデカマリメーションを入れる(配列0と1を交互に5回往復したらデカマリオにする配列2は難しかったら使って誤魔化す。</t>
+    <rPh sb="4" eb="5">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>コウゴ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>オウフク</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ムズカ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="59" eb="62">
+      <t>ゴマカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1917,10 +1935,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1933,9 +1954,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4209,6 +4227,56 @@
         <a:xfrm>
           <a:off x="1318259" y="906780"/>
           <a:ext cx="6606541" cy="744081"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>289560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25407FF5-FEB0-425D-B998-A47F13D47024}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8671560" y="289560"/>
+          <a:ext cx="2171700" cy="1447800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4551,7 +4619,7 @@
     </row>
     <row r="2" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="3" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="11" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="10"/>
@@ -4567,17 +4635,17 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="9" t="s">
         <v>39</v>
       </c>
       <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="8" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="12"/>
+      <c r="D8" s="13"/>
       <c r="I8" t="s">
         <v>54</v>
       </c>
@@ -4590,7 +4658,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="9" t="s">
         <v>38</v>
       </c>
       <c r="E10" s="10"/>
@@ -4601,10 +4669,10 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="12"/>
+      <c r="D12" s="13"/>
       <c r="I12" t="s">
         <v>122</v>
       </c>
@@ -4615,7 +4683,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="11" t="s">
         <v>83</v>
       </c>
       <c r="E14" s="10"/>
@@ -4626,42 +4694,42 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="12"/>
+      <c r="D16" s="13"/>
     </row>
     <row r="17" spans="3:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="18" spans="3:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="11" t="s">
         <v>84</v>
       </c>
       <c r="E18" s="10"/>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="13"/>
+      <c r="D20" s="14"/>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="14"/>
+      <c r="E22" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="D22:E22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -4694,10 +4762,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="13"/>
+      <c r="C3" s="14"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
@@ -4753,8 +4821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1643A83A-8E45-4118-9B82-AB4F2439567F}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4766,10 +4834,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="13"/>
+      <c r="C3" s="14"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
@@ -4831,7 +4899,7 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.45">
@@ -4931,12 +4999,12 @@
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -4951,7 +5019,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:C19"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4963,10 +5031,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="13"/>
+      <c r="C3" s="14"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
@@ -5037,6 +5105,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5064,7 +5133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D85A2C8-DD79-41EE-B3C7-F0FD3781794B}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -5136,12 +5205,12 @@
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -5167,10 +5236,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="13"/>
+      <c r="C3" s="14"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
@@ -5239,10 +5308,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="13"/>
+      <c r="C3" s="14"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
@@ -5489,89 +5558,89 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="13"/>
+      <c r="C3" s="14"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B13" s="1"/>
@@ -5733,11 +5802,11 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B14" t="s">

--- a/SBM/仕様書(奥田).xlsx
+++ b/SBM/仕様書(奥田).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\games\SBM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC554590-ABB8-41D2-838F-228E3B4556D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9EA7C1-BCEE-4303-A5F3-CDA24F3DF7C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6972" tabRatio="859" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6972" tabRatio="859" firstSheet="8" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="フローチャート" sheetId="1" r:id="rId1"/>
@@ -29,8 +29,9 @@
     <sheet name="プレイヤー(ファイヤマリオ" sheetId="14" r:id="rId14"/>
     <sheet name="プレイヤー(スター" sheetId="17" r:id="rId15"/>
     <sheet name="クリボー" sheetId="7" r:id="rId16"/>
-    <sheet name="クッパ" sheetId="10" r:id="rId17"/>
-    <sheet name="UI" sheetId="9" r:id="rId18"/>
+    <sheet name="ノコノコ" sheetId="19" r:id="rId17"/>
+    <sheet name="クッパ" sheetId="10" r:id="rId18"/>
+    <sheet name="UI" sheetId="9" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="174">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -1778,6 +1779,87 @@
     </rPh>
     <rPh sb="59" eb="62">
       <t>ゴマカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ノコノコ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>復活するとき</t>
+    <rPh sb="0" eb="2">
+      <t>フッカツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チビマリオ、スーパーマリオに踏まれると甲羅状態になる</t>
+    <rPh sb="14" eb="15">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コウラ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>甲羅状態から5秒経ったときに復活の配列0と1を交互に出してノコノコ配列0を出す。</t>
+    <rPh sb="0" eb="2">
+      <t>コウラ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>フッカツ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>コウゴ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイヤマリオの炎に当たると即死</t>
+    <rPh sb="8" eb="9">
+      <t>ホノオ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ソクシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スターマリオに当たると即死</t>
+    <rPh sb="7" eb="8">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ソクシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1935,13 +2017,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1954,6 +2033,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2598,6 +2680,111 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70AD18A2-8906-4B4D-9675-484878186A0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="701040" y="495300"/>
+          <a:ext cx="1333500" cy="1333500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68B23598-6468-4BE2-BF61-88DD170F7D75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2682240" y="1165860"/>
+          <a:ext cx="1600200" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4619,7 +4806,7 @@
     </row>
     <row r="2" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="3" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="10"/>
@@ -4635,17 +4822,17 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="15" t="s">
         <v>39</v>
       </c>
       <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="8" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="13"/>
+      <c r="D8" s="12"/>
       <c r="I8" t="s">
         <v>54</v>
       </c>
@@ -4658,7 +4845,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="15" t="s">
         <v>38</v>
       </c>
       <c r="E10" s="10"/>
@@ -4669,10 +4856,10 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="13"/>
+      <c r="D12" s="12"/>
       <c r="I12" t="s">
         <v>122</v>
       </c>
@@ -4683,7 +4870,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="9" t="s">
         <v>83</v>
       </c>
       <c r="E14" s="10"/>
@@ -4694,42 +4881,42 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="13"/>
+      <c r="D16" s="12"/>
     </row>
     <row r="17" spans="3:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="18" spans="3:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="9" t="s">
         <v>84</v>
       </c>
       <c r="E18" s="10"/>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="14"/>
+      <c r="D20" s="13"/>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="15"/>
+      <c r="E22" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C12:D12"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C12:D12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -4762,10 +4949,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="14"/>
+      <c r="C3" s="13"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
@@ -4821,7 +5008,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1643A83A-8E45-4118-9B82-AB4F2439567F}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -4834,10 +5021,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="14"/>
+      <c r="C3" s="13"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
@@ -5031,10 +5218,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="14"/>
+      <c r="C3" s="13"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
@@ -5223,9 +5410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44011D24-CB33-4CEA-943D-8A5934F25E31}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -5236,10 +5421,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="14"/>
+      <c r="C3" s="13"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
@@ -5292,6 +5477,63 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED2E14E-C33D-40CC-9BD1-D9DCC2E59FF1}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="str">
+        <f>フローチャート!A1</f>
+        <v>ゲームタイトル :スーパーマリオブラザーズ</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C43DE806-201C-44CF-A009-EA4BB7A281C7}">
   <dimension ref="A1:C18"/>
   <sheetViews>
@@ -5308,10 +5550,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="14"/>
+      <c r="C3" s="13"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
@@ -5358,7 +5600,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F123861E-DFF3-4991-A5EF-702E3162478D}">
   <dimension ref="A1:H12"/>
   <sheetViews>
@@ -5558,89 +5800,89 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="14"/>
+      <c r="C3" s="13"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B13" s="1"/>
@@ -5802,11 +6044,11 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B14" t="s">

--- a/SBM/仕様書(奥田).xlsx
+++ b/SBM/仕様書(奥田).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\games\SBM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9EA7C1-BCEE-4303-A5F3-CDA24F3DF7C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50F6E27-7A9B-4120-B8B7-55CB63B1B683}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6972" tabRatio="859" firstSheet="8" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6972" tabRatio="859" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="フローチャート" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="177">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -1860,6 +1860,36 @@
     </rPh>
     <rPh sb="11" eb="13">
       <t>ソクシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラ仕様に戻る</t>
+    <rPh sb="3" eb="5">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハイパー無敵チビマリオ</t>
+    <rPh sb="4" eb="6">
+      <t>ムテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>絵の4色で演出する</t>
+    <rPh sb="0" eb="1">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨンショク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>エンシュツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2017,10 +2047,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2033,9 +2066,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2690,6 +2720,116 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4882D26D-7FAC-47EE-9E7A-7217D8C2910A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="914400" y="617220"/>
+          <a:ext cx="2743200" cy="2438400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E016DEF-2DC8-467D-A233-236EDAF90E4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1348740" y="838200"/>
+          <a:ext cx="1287780" cy="1287780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
@@ -4479,23 +4619,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>624840</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E016DEF-2DC8-467D-A233-236EDAF90E4D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30F771C7-EF84-4A5D-B43B-324EA1C2F511}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4504,7 +4644,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4517,8 +4657,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1348740" y="838200"/>
-          <a:ext cx="1287780" cy="1287780"/>
+          <a:off x="822960" y="716280"/>
+          <a:ext cx="2438400" cy="1219200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4795,7 +4935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -4806,7 +4946,7 @@
     </row>
     <row r="2" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="3" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="11" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="10"/>
@@ -4822,17 +4962,17 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="9" t="s">
         <v>39</v>
       </c>
       <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="8" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="12"/>
+      <c r="D8" s="13"/>
       <c r="I8" t="s">
         <v>54</v>
       </c>
@@ -4845,7 +4985,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="9" t="s">
         <v>38</v>
       </c>
       <c r="E10" s="10"/>
@@ -4856,10 +4996,10 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="12"/>
+      <c r="D12" s="13"/>
       <c r="I12" t="s">
         <v>122</v>
       </c>
@@ -4870,7 +5010,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="11" t="s">
         <v>83</v>
       </c>
       <c r="E14" s="10"/>
@@ -4881,42 +5021,42 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="12"/>
+      <c r="D16" s="13"/>
     </row>
     <row r="17" spans="3:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="18" spans="3:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="11" t="s">
         <v>84</v>
       </c>
       <c r="E18" s="10"/>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="13"/>
+      <c r="D20" s="14"/>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="14"/>
+      <c r="E22" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="D22:E22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -4949,10 +5089,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="13"/>
+      <c r="C3" s="14"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
@@ -5006,10 +5146,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1643A83A-8E45-4118-9B82-AB4F2439567F}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -5021,10 +5161,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="13"/>
+      <c r="C3" s="14"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
@@ -5064,32 +5204,32 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
         <v>4</v>
       </c>
@@ -5097,12 +5237,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
         <v>42</v>
       </c>
       <c r="E24" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="N26" s="8" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -5110,6 +5255,9 @@
     <mergeCell ref="B3:C3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="N26" location="キャラ仕様!A1" display="キャラ仕様に戻る" xr:uid="{EFC28141-9D82-45BE-B2BC-B4A438AE0214}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -5117,10 +5265,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B3C88D3-3964-4659-BDA1-22A8141BBFAE}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:B21"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -5169,35 +5317,47 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>166</v>
       </c>
     </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>176</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="M22" location="キャラ仕様!A1" display="キャラ仕様に戻る" xr:uid="{6799FB28-44B7-4C78-BBDB-3C5192B58564}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5218,10 +5378,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="13"/>
+      <c r="C3" s="14"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
@@ -5318,10 +5478,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D85A2C8-DD79-41EE-B3C7-F0FD3781794B}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -5332,85 +5492,101 @@
         <v>ゲームタイトル :スーパーマリオブラザーズ</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B14" t="s">
-        <v>163</v>
-      </c>
-    </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>49</v>
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B17" t="s">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B18" t="s">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B19" t="s">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B24" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B20" t="s">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B21" t="s">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B26" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B22" t="s">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
         <v>166</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B28" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="L29" s="8" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="L29" location="キャラ仕様!A1" display="キャラ仕様に戻る" xr:uid="{1B36B9D7-239D-4DD7-BB5A-A1646DAF81B8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44011D24-CB33-4CEA-943D-8A5934F25E31}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -5421,10 +5597,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="13"/>
+      <c r="C3" s="14"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
@@ -5456,12 +5632,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="K18" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>100</v>
       </c>
@@ -5471,6 +5650,9 @@
     <mergeCell ref="B3:C3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="K18" location="キャラ仕様!A1" display="キャラ仕様に戻る" xr:uid="{92380077-CC78-45A7-A0FE-DFA534FAACDD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -5478,10 +5660,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED2E14E-C33D-40CC-9BD1-D9DCC2E59FF1}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -5525,8 +5707,16 @@
         <v>173</v>
       </c>
     </row>
+    <row r="18" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L18" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="L18" location="キャラ仕様!A1" display="キャラ仕様に戻る" xr:uid="{8DB053CA-0E23-43C8-B7C2-558901164F16}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -5535,10 +5725,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C43DE806-201C-44CF-A009-EA4BB7A281C7}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -5550,10 +5740,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="13"/>
+      <c r="C3" s="14"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
@@ -5580,14 +5770,19 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="K20" s="8" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -5595,6 +5790,9 @@
     <mergeCell ref="B3:C3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="K20" location="キャラ仕様!A1" display="キャラ仕様に戻る" xr:uid="{CECA3A8A-9FE1-404C-BA95-CC8B84EBDAA7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5714,11 +5912,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80908246-7FCB-4D34-B1C8-B0D6E3A52112}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -5734,36 +5930,44 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" s="8" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B7" s="8" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
-        <v>137</v>
-      </c>
-    </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B8" s="8" t="s">
-        <v>132</v>
-      </c>
+      <c r="B8" s="8"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B10" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B10" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B11" s="8" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B13" s="8" t="s">
         <v>55</v>
       </c>
     </row>
@@ -5771,12 +5975,14 @@
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="B4" location="'プレイヤー(チビマリオ'!A1" display="マリオ" xr:uid="{4C3E411B-5173-4459-B0D6-64BADBB68DC2}"/>
-    <hyperlink ref="B5" location="'プレイヤー(スーパーマリオ'!A1" display="スーパーマリオ" xr:uid="{6D7DFE0F-990C-482E-877D-5040FAB5A81D}"/>
-    <hyperlink ref="B6" location="'プレイヤーフ(ファイヤマリオ'!A1" display="ファイヤマリオ" xr:uid="{E799FC68-8926-4C6D-9FD8-95D142495A95}"/>
-    <hyperlink ref="B8" location="クリボー!A1" display="クリボー" xr:uid="{66319828-35AC-46C6-8794-986EE24CBD4B}"/>
-    <hyperlink ref="B11" location="クッパ!A1" display="クッパ" xr:uid="{9A49FCF5-F38F-4C3E-B75B-A1E3D9090FE2}"/>
+    <hyperlink ref="B6" location="'プレイヤー(スーパーマリオ'!A1" display="スーパーマリオ" xr:uid="{6D7DFE0F-990C-482E-877D-5040FAB5A81D}"/>
+    <hyperlink ref="B7" location="'プレイヤーフ(ファイヤマリオ'!A1" display="ファイヤマリオ" xr:uid="{E799FC68-8926-4C6D-9FD8-95D142495A95}"/>
+    <hyperlink ref="B10" location="クリボー!A1" display="クリボー" xr:uid="{66319828-35AC-46C6-8794-986EE24CBD4B}"/>
+    <hyperlink ref="B13" location="クッパ!A1" display="クッパ" xr:uid="{9A49FCF5-F38F-4C3E-B75B-A1E3D9090FE2}"/>
+    <hyperlink ref="B5" location="'プレイヤー(チビスター'!A1" display="ハイパー無敵チビマリオ" xr:uid="{C182D331-CA0F-4CBE-B629-7853D4D44EDB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5800,89 +6006,89 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="13"/>
+      <c r="C3" s="14"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B13" s="1"/>
@@ -6044,11 +6250,11 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
@@ -6352,7 +6558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6A9D2F-2B8A-4B47-A65E-1550EEEBBCBF}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>

--- a/SBM/仕様書(奥田).xlsx
+++ b/SBM/仕様書(奥田).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\games\SBM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50F6E27-7A9B-4120-B8B7-55CB63B1B683}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D48439-CAF0-4398-9AA6-6DBFC3FDBEE1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6972" tabRatio="859" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6972" tabRatio="859" firstSheet="11" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="フローチャート" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="176">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -1663,13 +1663,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>×の座標は256,48</t>
-    <rPh sb="2" eb="4">
-      <t>ザヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>384,32</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1689,10 +1682,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>512,48</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>528,48</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1891,6 +1880,10 @@
     <rPh sb="5" eb="7">
       <t>エンシュツ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>512,32</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2047,13 +2040,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2066,6 +2056,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4946,7 +4939,7 @@
     </row>
     <row r="2" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="3" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="10"/>
@@ -4962,17 +4955,17 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="15" t="s">
         <v>39</v>
       </c>
       <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="8" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="13"/>
+      <c r="D8" s="12"/>
       <c r="I8" t="s">
         <v>54</v>
       </c>
@@ -4985,7 +4978,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="15" t="s">
         <v>38</v>
       </c>
       <c r="E10" s="10"/>
@@ -4996,10 +4989,10 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="13"/>
+      <c r="D12" s="12"/>
       <c r="I12" t="s">
         <v>122</v>
       </c>
@@ -5010,7 +5003,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="9" t="s">
         <v>83</v>
       </c>
       <c r="E14" s="10"/>
@@ -5021,42 +5014,42 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="13"/>
+      <c r="D16" s="12"/>
     </row>
     <row r="17" spans="3:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="18" spans="3:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="9" t="s">
         <v>84</v>
       </c>
       <c r="E18" s="10"/>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="14"/>
+      <c r="D20" s="13"/>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="15"/>
+      <c r="E22" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C12:D12"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C12:D12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -5089,10 +5082,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="14"/>
+      <c r="C3" s="13"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
@@ -5161,10 +5154,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="14"/>
+      <c r="C3" s="13"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
@@ -5226,7 +5219,7 @@
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.45">
@@ -5247,7 +5240,7 @@
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.45">
       <c r="N26" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -5304,7 +5297,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
@@ -5329,25 +5322,25 @@
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -5378,10 +5371,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="14"/>
+      <c r="C3" s="13"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
@@ -5517,7 +5510,7 @@
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.45">
@@ -5547,27 +5540,27 @@
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.45">
       <c r="L29" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -5597,10 +5590,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="14"/>
+      <c r="C3" s="13"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
@@ -5637,7 +5630,7 @@
         <v>4</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.45">
@@ -5676,10 +5669,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
@@ -5689,27 +5682,27 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L18" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -5740,10 +5733,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="14"/>
+      <c r="C3" s="13"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
@@ -5782,7 +5775,7 @@
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.45">
       <c r="K20" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -5800,21 +5793,21 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F123861E-DFF3-4991-A5EF-702E3162478D}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="str">
         <f>フローチャート!A1</f>
         <v>ゲームタイトル :スーパーマリオブラザーズ</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>127</v>
       </c>
@@ -5822,7 +5815,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>139</v>
       </c>
@@ -5833,7 +5826,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>140</v>
       </c>
@@ -5841,7 +5834,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>150</v>
       </c>
@@ -5849,58 +5842,55 @@
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>141</v>
       </c>
       <c r="F7" t="s">
         <v>154</v>
       </c>
-      <c r="H7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>142</v>
       </c>
       <c r="F8" t="s">
+        <v>155</v>
+      </c>
+      <c r="G8" t="s">
         <v>156</v>
       </c>
-      <c r="G8" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>143</v>
       </c>
       <c r="F9" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>144</v>
       </c>
       <c r="F10" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>145</v>
       </c>
       <c r="F11" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>146</v>
       </c>
       <c r="F12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -5914,7 +5904,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80908246-7FCB-4D34-B1C8-B0D6E3A52112}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -5930,7 +5920,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" s="8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
@@ -6006,89 +5996,89 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="14"/>
+      <c r="C3" s="13"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B13" s="1"/>
@@ -6250,11 +6240,11 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
@@ -6458,7 +6448,7 @@
     </row>
     <row r="28" spans="2:3" ht="22.2" x14ac:dyDescent="0.45">
       <c r="B28" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">

--- a/SBM/仕様書(奥田).xlsx
+++ b/SBM/仕様書(奥田).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\games\SBM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D48439-CAF0-4398-9AA6-6DBFC3FDBEE1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA7F327-3395-4C70-A38C-3AB4E5A00341}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6972" tabRatio="859" firstSheet="11" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6972" tabRatio="859" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="フローチャート" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="181">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -1884,6 +1884,35 @@
   </si>
   <si>
     <t>512,32</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>siro1.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>160×160</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画僧</t>
+    <rPh sb="0" eb="2">
+      <t>ガソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>siro2.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>横288×縦352</t>
+    <rPh sb="0" eb="1">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タテ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2040,10 +2069,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2056,9 +2088,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4939,7 +4968,7 @@
     </row>
     <row r="2" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="3" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="11" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="10"/>
@@ -4955,17 +4984,17 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="9" t="s">
         <v>39</v>
       </c>
       <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="8" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="12"/>
+      <c r="D8" s="13"/>
       <c r="I8" t="s">
         <v>54</v>
       </c>
@@ -4978,7 +5007,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="9" t="s">
         <v>38</v>
       </c>
       <c r="E10" s="10"/>
@@ -4989,10 +5018,10 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="12"/>
+      <c r="D12" s="13"/>
       <c r="I12" t="s">
         <v>122</v>
       </c>
@@ -5003,7 +5032,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="11" t="s">
         <v>83</v>
       </c>
       <c r="E14" s="10"/>
@@ -5014,42 +5043,42 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="12"/>
+      <c r="D16" s="13"/>
     </row>
     <row r="17" spans="3:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="18" spans="3:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="11" t="s">
         <v>84</v>
       </c>
       <c r="E18" s="10"/>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="13"/>
+      <c r="D20" s="14"/>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="14"/>
+      <c r="E22" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="D22:E22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -5082,10 +5111,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="13"/>
+      <c r="C3" s="14"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
@@ -5154,10 +5183,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="13"/>
+      <c r="C3" s="14"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
@@ -5371,10 +5400,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="13"/>
+      <c r="C3" s="14"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
@@ -5590,10 +5619,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="13"/>
+      <c r="C3" s="14"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
@@ -5733,10 +5762,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="13"/>
+      <c r="C3" s="14"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
@@ -5795,7 +5824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F123861E-DFF3-4991-A5EF-702E3162478D}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -5996,89 +6025,89 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="13"/>
+      <c r="C3" s="14"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B13" s="1"/>
@@ -6221,10 +6250,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:R43"/>
+  <dimension ref="A1:R44"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -6240,11 +6269,11 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
@@ -6333,32 +6362,32 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B36" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B37" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B38" t="s">
         <v>77</v>
       </c>
@@ -6366,7 +6395,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
         <v>76</v>
       </c>
@@ -6374,18 +6403,26 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B40" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B41" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B43" t="s">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B42" t="s">
+        <v>176</v>
+      </c>
+      <c r="F42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B44" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6404,7 +6441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C0DEF63-E498-48F7-BD00-8BD2A3A5E372}">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
@@ -6546,10 +6583,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6A9D2F-2B8A-4B47-A65E-1550EEEBBCBF}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -6627,6 +6664,19 @@
       </c>
       <c r="F22" t="s">
         <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="B25" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="B26" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="F26" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
